--- a/01.Code/PMIT_bakstage/src/main/resources/configfilemodel/personalinfoTemplate.xlsx
+++ b/01.Code/PMIT_bakstage/src/main/resources/configfilemodel/personalinfoTemplate.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69EA39FE-A8A0-4DD7-9F30-39702520E4C4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="133">
   <si>
     <t>软通工号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -537,13 +536,21 @@
   </si>
   <si>
     <t>个人综合信息表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>等级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>初级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -623,7 +630,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -692,12 +699,23 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -715,16 +733,19 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -746,7 +767,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -821,23 +842,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -873,23 +877,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1065,11 +1052,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:BZ4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:CA4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1103,56 +1090,57 @@
     <col min="42" max="42" width="9.5" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="10.5" bestFit="1" customWidth="1"/>
     <col min="44" max="44" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="48" max="48" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="50" max="52" width="16.125" bestFit="1" customWidth="1"/>
-    <col min="54" max="55" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="15" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="59" max="59" width="16.25" bestFit="1" customWidth="1"/>
-    <col min="60" max="62" width="11.625" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="15.25" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="67" max="67" width="11" bestFit="1" customWidth="1"/>
-    <col min="68" max="69" width="17.375" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="12.75" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="15.125" bestFit="1" customWidth="1"/>
-    <col min="72" max="73" width="11" bestFit="1" customWidth="1"/>
-    <col min="74" max="74" width="19.375" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="78" max="78" width="36.125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="13.875" customWidth="1"/>
+    <col min="46" max="46" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="51" max="53" width="16.125" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="15" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="16.25" bestFit="1" customWidth="1"/>
+    <col min="61" max="63" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="67" max="67" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="11" bestFit="1" customWidth="1"/>
+    <col min="69" max="70" width="17.375" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="73" max="74" width="11" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="19.375" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="78" max="78" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="36.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:78" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="10" t="s">
+    <row r="1" spans="1:79" ht="23.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="11"/>
     </row>
-    <row r="2" spans="1:78" ht="22.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="7" t="s">
+    <row r="2" spans="1:79" ht="22.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="10"/>
     </row>
-    <row r="3" spans="1:78" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:79" s="5" customFormat="1" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1286,109 +1274,112 @@
         <v>50</v>
       </c>
       <c r="AS3" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="AT3" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="AT3" s="4" t="s">
+      <c r="AU3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="AU3" s="4" t="s">
+      <c r="AV3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AV3" s="4" t="s">
+      <c r="AW3" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="AW3" s="4" t="s">
+      <c r="AX3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="AX3" s="4" t="s">
+      <c r="AY3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="AY3" s="4" t="s">
+      <c r="AZ3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="AZ3" s="4" t="s">
+      <c r="BA3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="BA3" s="4" t="s">
+      <c r="BB3" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="BB3" s="4" t="s">
+      <c r="BC3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="BC3" s="4" t="s">
+      <c r="BD3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="BD3" s="4" t="s">
+      <c r="BE3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="BE3" s="4" t="s">
+      <c r="BF3" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="BF3" s="4" t="s">
+      <c r="BG3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="BG3" s="4" t="s">
+      <c r="BH3" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="BH3" s="4" t="s">
+      <c r="BI3" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="BI3" s="4" t="s">
+      <c r="BJ3" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="BJ3" s="4" t="s">
+      <c r="BK3" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="BK3" s="4" t="s">
+      <c r="BL3" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="BL3" s="4" t="s">
+      <c r="BM3" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="BM3" s="4" t="s">
+      <c r="BN3" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="BN3" s="4" t="s">
+      <c r="BO3" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="BO3" s="4" t="s">
+      <c r="BP3" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="BP3" s="4" t="s">
+      <c r="BQ3" s="4" t="s">
         <v>122</v>
       </c>
-      <c r="BQ3" s="4" t="s">
+      <c r="BR3" s="4" t="s">
         <v>123</v>
       </c>
-      <c r="BR3" s="4" t="s">
+      <c r="BS3" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="BS3" s="4" t="s">
+      <c r="BT3" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="BT3" s="4" t="s">
+      <c r="BU3" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="BU3" s="4" t="s">
+      <c r="BV3" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="BV3" s="4" t="s">
+      <c r="BW3" s="4" t="s">
         <v>129</v>
       </c>
-      <c r="BW3" s="4" t="s">
+      <c r="BX3" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="BX3" s="4" t="s">
+      <c r="BY3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="BY3" s="4" t="s">
+      <c r="BZ3" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="BZ3" s="4" t="s">
+      <c r="CA3" s="4" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:78" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:79" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
         <v>56780</v>
       </c>
@@ -1519,106 +1510,109 @@
       <c r="AR4" s="1">
         <v>1</v>
       </c>
-      <c r="AS4" s="2">
+      <c r="AS4" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AT4" s="2">
         <v>33178</v>
       </c>
-      <c r="AT4" s="1">
+      <c r="AU4" s="1">
         <v>170</v>
       </c>
-      <c r="AU4" s="1">
+      <c r="AV4" s="1">
         <v>60</v>
       </c>
-      <c r="AV4" s="1" t="s">
+      <c r="AW4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AW4" s="1" t="s">
+      <c r="AX4" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="AX4" s="1" t="s">
+      <c r="AY4" s="1" t="s">
         <v>100</v>
       </c>
-      <c r="AY4" s="1" t="s">
+      <c r="AZ4" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="AZ4" s="1">
+      <c r="BA4" s="1">
         <v>17000000001</v>
       </c>
-      <c r="BA4" s="1" t="s">
+      <c r="BB4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BB4" s="1" t="s">
+      <c r="BC4" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="BC4" s="1" t="s">
+      <c r="BD4" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="BD4" s="1">
+      <c r="BE4" s="1">
         <v>40</v>
       </c>
-      <c r="BE4" s="1" t="s">
+      <c r="BF4" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="BF4" s="2">
+      <c r="BG4" s="2">
         <v>41760</v>
       </c>
-      <c r="BG4" s="2" t="s">
+      <c r="BH4" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="BH4" s="1" t="s">
+      <c r="BI4" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="BI4" s="1" t="s">
+      <c r="BJ4" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="BJ4" s="1" t="s">
+      <c r="BK4" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="BK4" s="1" t="s">
+      <c r="BL4" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="BL4" s="1" t="s">
+      <c r="BM4" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="BM4" s="1" t="s">
+      <c r="BN4" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="BN4" s="1" t="s">
+      <c r="BO4" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="BO4" s="2" t="s">
+      <c r="BP4" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="BP4" s="6" t="s">
-        <v>124</v>
       </c>
       <c r="BQ4" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="BR4" s="1" t="s">
+      <c r="BR4" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="BS4" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="BS4" s="1" t="s">
+      <c r="BT4" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="BT4" s="1" t="s">
+      <c r="BU4" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="BU4" s="1" t="s">
+      <c r="BV4" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="BV4" s="1">
+      <c r="BW4" s="1">
         <v>10001</v>
       </c>
-      <c r="BW4" s="1" t="s">
+      <c r="BX4" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="BX4" s="2" t="s">
+      <c r="BY4" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="BY4" s="1" t="s">
+      <c r="BZ4" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="BZ4" s="2">
+      <c r="CA4" s="2">
         <v>43252</v>
       </c>
     </row>
@@ -1629,9 +1623,9 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="AK4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="BP4" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="BQ4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="AK4" r:id="rId1"/>
+    <hyperlink ref="BQ4" r:id="rId2"/>
+    <hyperlink ref="BR4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
